--- a/stories/Lala/story.xlsx
+++ b/stories/Lala/story.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheylus/Documents/Rita/PythonMLP_2024_PAMCAP_EPCT_Rita/stories/Lala/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B962078B-3F97-494C-B492-8F897568E200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E63EFA-6608-1F4C-8F56-5B3DABF4D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="-7600" windowWidth="22400" windowHeight="13600" xr2:uid="{8FAE3BAC-2847-E54B-870A-D43C50EBCF71}"/>
   </bookViews>
@@ -109,11 +109,6 @@
     <t xml:space="preserve">Alors, on commence ! </t>
   </si>
   <si>
-    <t>R pour revenir au début des instructions
-Bienvenue à la course des champions 
-Merci d'avoir rejoint le jury !</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -153,6 +148,11 @@
   <si>
     <t>Et ici une série avec un saut plus haut. 
 C’est toujours le 4e saut qui a tendance à être plus haut que les autres</t>
+  </si>
+  <si>
+    <t>Espace pour revenir au début des instructions
+Bienvenue à la course des champions 
+Merci d'avoir rejoint le jury !</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CA3E0B-1C38-6740-ADF8-D4AD5FF5992A}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -746,26 +746,26 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/stories/Lala/story.xlsx
+++ b/stories/Lala/story.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheylus/Documents/Rita/PythonMLP_2024_PAMCAP_EPCT_Rita/stories/Lala/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAM\Documents\dycg_users\RITA\PythonMLP_2024_PAMCAP_EPCT_Rita-RabbitsVersion\stories\Lala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E63EFA-6608-1F4C-8F56-5B3DABF4D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FCB883-169E-44BE-BB89-1C6B7CC1EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-7600" windowWidth="22400" windowHeight="13600" xr2:uid="{8FAE3BAC-2847-E54B-870A-D43C50EBCF71}"/>
+    <workbookView xWindow="6840" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{8FAE3BAC-2847-E54B-870A-D43C50EBCF71}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Type</t>
   </si>
@@ -153,6 +143,20 @@
     <t>Espace pour revenir au début des instructions
 Bienvenue à la course des champions 
 Merci d'avoir rejoint le jury !</t>
+  </si>
+  <si>
+    <t>Diapositive6b</t>
+  </si>
+  <si>
+    <t>Diapositive6c</t>
+  </si>
+  <si>
+    <t>Dans ce qui suit tu vas bien entendre les sauts
+et essayer d'appuyer sur la bonne touche.</t>
+  </si>
+  <si>
+    <t>Si la première fois tu n'as pas bien entendu les sauts, tu peux réécouter
+en appuyant sur ESPACE</t>
   </si>
 </sst>
 </file>
@@ -513,20 +517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CA3E0B-1C38-6740-ADF8-D4AD5FF5992A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -560,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -577,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -594,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -611,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -628,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -645,126 +649,160 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>27</v>
       </c>
     </row>

--- a/stories/Lala/story.xlsx
+++ b/stories/Lala/story.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAM\Documents\dycg_users\RITA\PythonMLP_2024_PAMCAP_EPCT_Rita-RabbitsVersion\stories\Lala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PAM_HD_2T_5/RITA/MLPStory3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FCB883-169E-44BE-BB89-1C6B7CC1EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4B9331-6267-8E4B-BF21-6A3C92B78252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{8FAE3BAC-2847-E54B-870A-D43C50EBCF71}"/>
+    <workbookView xWindow="21420" yWindow="8700" windowWidth="27820" windowHeight="18280" xr2:uid="{8FAE3BAC-2847-E54B-870A-D43C50EBCF71}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>Diapositive6</t>
   </si>
   <si>
-    <t>Diapositive10</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>Bloc</t>
-  </si>
-  <si>
-    <t>Diapositive11</t>
   </si>
   <si>
     <t>Diapositive12</t>
@@ -145,18 +139,24 @@
 Merci d'avoir rejoint le jury !</t>
   </si>
   <si>
-    <t>Diapositive6b</t>
-  </si>
-  <si>
-    <t>Diapositive6c</t>
-  </si>
-  <si>
     <t>Dans ce qui suit tu vas bien entendre les sauts
 et essayer d'appuyer sur la bonne touche.</t>
   </si>
   <si>
     <t>Si la première fois tu n'as pas bien entendu les sauts, tu peux réécouter
 en appuyant sur ESPACE</t>
+  </si>
+  <si>
+    <t>Diapositive7</t>
+  </si>
+  <si>
+    <t>Diapositive8</t>
+  </si>
+  <si>
+    <t>Diapositive14</t>
+  </si>
+  <si>
+    <t>Diapositive15</t>
   </si>
 </sst>
 </file>
@@ -520,17 +520,17 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,12 +547,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -564,12 +564,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -581,12 +581,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -598,12 +598,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -615,12 +615,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -632,12 +632,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -649,12 +649,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -666,12 +666,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -683,12 +683,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -700,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -717,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -734,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -751,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -768,39 +768,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
